--- a/检测指标计算是否正确.xlsx
+++ b/检测指标计算是否正确.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\github\fakequote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B9ACAB4-B5BB-429B-ACAF-B1C3DF360D98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CC14202-94F4-4FE7-948A-E2EC88E8B28F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="16560" windowHeight="6060" activeTab="1" xr2:uid="{3F3E223D-443C-42AB-B703-3299DD29F1CF}"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="16560" windowHeight="6060" activeTab="1" xr2:uid="{3F3E223D-443C-42AB-B703-3299DD29F1CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="python计算结果" sheetId="1" r:id="rId1"/>
+    <sheet name="数据与计算表" sheetId="2" r:id="rId2"/>
+    <sheet name="下行波动率数据" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">下行波动率数据!$A$2:$A$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>年化收益率</t>
   </si>
@@ -67,6 +71,50 @@
   </si>
   <si>
     <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv-bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +122,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +141,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,18 +194,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,16 +562,16 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -480,34 +608,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12.5367544241329</v>
+        <v>17.053699999999999</v>
       </c>
       <c r="B2">
-        <v>-4.51690290098401</v>
+        <v>4.5168999999999997</v>
       </c>
       <c r="C2">
-        <v>16.706414215194801</v>
+        <v>11.5884</v>
       </c>
       <c r="D2">
-        <v>-4.4672825376807701</v>
+        <v>4.4672999999999998</v>
       </c>
       <c r="E2">
-        <v>-5.0724696161864299E-2</v>
+        <v>7.3676000000000004</v>
       </c>
       <c r="F2">
-        <v>0.77261348369928495</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="G2">
-        <v>0.31233373644136198</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="H2">
-        <v>0.21140565544790799</v>
+        <v>1.4716</v>
       </c>
       <c r="I2">
-        <v>0.43245709678080901</v>
+        <v>0.9667</v>
       </c>
       <c r="J2">
-        <v>28.989591146626999</v>
+        <v>17.641999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -518,182 +646,1059 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EB4AE-3516-4979-871E-61ED8DD9F560}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <f>(B22-1)*252/20</f>
+        <v>17.053657361999999</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(C22-1)*252/20</f>
+        <v>12.536754426</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(B22-C22)*252/20</f>
+        <v>4.5169029359999984</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4">
+        <f>G3/D25</f>
+        <v>11.588424300467155</v>
+      </c>
+      <c r="L3" s="4">
+        <f>H3/E25</f>
+        <v>16.70641435851806</v>
+      </c>
+      <c r="M3" s="6">
+        <f>I3/F25</f>
+        <v>4.4672825155172555</v>
+      </c>
+      <c r="N3" s="4">
+        <f>G3-H3*O3</f>
+        <v>7.3675919644431875</v>
+      </c>
+      <c r="O3" s="4">
+        <f>CORREL(D4:D22,E4:E22)</f>
+        <v>0.77261347462217667</v>
+      </c>
+      <c r="P3" s="4">
+        <f>(B4-B5)/B4</f>
+        <v>0.554530057902621</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>D25</f>
+        <v>1.4716114046076592</v>
+      </c>
+      <c r="R3" s="4">
+        <f>_xlfn.STDEV.P(下行波动率数据!C2:C9)*SQRT(252/8)</f>
+        <v>0.96665269628083905</v>
+      </c>
+      <c r="S3" s="4">
+        <f>G3/R3</f>
+        <v>17.64196947633139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1.3351848100000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0465079399999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f>B4/B3-1</f>
+        <v>0.33518481000000011</v>
+      </c>
+      <c r="E4" s="4">
+        <f>C4/C3-1</f>
+        <v>4.6507939999999914E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f>D4-E4</f>
+        <v>0.2886768700000002</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.59478470000000006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.71964821000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:E22" si="0">B5/B4-1</f>
+        <v>-0.554530057902621</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.31233373155295885</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F22" si="1">D5-E5</f>
+        <v>-0.24219632634966215</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1.56663256</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.21264349</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6339489902816933</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68505038037960242</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94889860990209085</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1.07746506</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.27265859</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.31224137202918856</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9491132797818471E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.36173250482700703</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.99541804</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.1314288100000001</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.6148195469094793E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.11097224433145103</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4824048862356238E-2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1.0927559899999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1685438800000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7786001547651269E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2803716567903152E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4982284979748117E-2</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>1.2398011900000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.0908611500000001</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13456361836094821</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.6478231010032807E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20104184937098102</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1.0854971600000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.29109976</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12445868841277696</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18356012586936465</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.30801881428214162</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1.1787860400000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.16364775</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5941155295146121E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.8715849811636613E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18465700510678273</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1.4378803600000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.5310498400000001</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21979758090789736</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31573308159621338</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.5935500688316022E-2</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1.8414329700000001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.7745128400000001</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28065798881904191</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15901703108502341</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12164095773401851</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>1.71776313</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.56222544</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.7159566497823731E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.11963136879866143</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.24718023008377E-2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>1.6408714499999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.6338381200000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.4762679240880066E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5840170161356442E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.0602849402236507E-2</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>1.8483801799999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.4862519000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12646251478139869</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.0330993134130066E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21679350791552876</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>1.8777850199999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.95264773</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.590843719174706E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31380671742118538</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.29789828022943832</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>2.1258736499999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.81769526</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13211769577328925</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.9112553138297006E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20123024891158625</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>1.8996966</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.8574823600000001</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.10639251773029879</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1888762586089516E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.1282812803163883</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>2.3548006199999998</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.11899229</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23956668659616476</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14078730201238621</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8779384583778551E-2</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>2.3534648699999998</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.99498051</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.6724547660425007E-4</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.8523941113537536E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7956695636933286E-2</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <f>AVERAGE(D4:D22)</f>
+        <v>0.10608816614714159</v>
+      </c>
+      <c r="E23" s="10">
+        <f>AVERAGE(E4:E22)</f>
+        <v>5.623091829401252E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <f>AVERAGE(F4:F22)</f>
+        <v>4.9857247853129061E-2</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
+        <f>_xlfn.STDEV.P(D4:D22)</f>
+        <v>0.41457954663705721</v>
+      </c>
+      <c r="E24" s="10">
+        <f>_xlfn.STDEV.P(E4:E22)</f>
+        <v>0.21140565366575631</v>
+      </c>
+      <c r="F24" s="10">
+        <f>_xlfn.STDEV.P(F4:F22)</f>
+        <v>0.28484727357895862</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <f>D24*SQRT(252/20)</f>
+        <v>1.4716114046076592</v>
+      </c>
+      <c r="E25" s="10">
+        <f>E24*SQRT(252/20)</f>
+        <v>0.75041562821096408</v>
+      </c>
+      <c r="F25" s="10">
+        <f>F24*SQRT(252/20)</f>
+        <v>1.0111075178949136</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCACB04D-C766-40EC-B04B-C69FC9605B9E}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.0465079399999999</v>
-      </c>
-      <c r="B3">
-        <v>1.3351848100000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.71964821000000001</v>
-      </c>
-      <c r="B4">
-        <v>0.59478470000000006</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.21264349</v>
-      </c>
-      <c r="B5">
-        <v>1.56663256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.27265859</v>
-      </c>
-      <c r="B6">
-        <v>1.07746506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.1314288100000001</v>
-      </c>
-      <c r="B7">
-        <v>0.99541804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.1685438800000001</v>
-      </c>
-      <c r="B8">
-        <v>1.0927559899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.0908611500000001</v>
-      </c>
-      <c r="B9">
-        <v>1.2398011900000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.29109976</v>
-      </c>
-      <c r="B10">
-        <v>1.0854971600000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.16364775</v>
-      </c>
-      <c r="B11">
-        <v>1.1787860400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.5310498400000001</v>
-      </c>
-      <c r="B12">
-        <v>1.4378803600000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.7745128400000001</v>
-      </c>
-      <c r="B13">
-        <v>1.8414329700000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.56222544</v>
-      </c>
-      <c r="B14">
-        <v>1.71776313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.6338381200000001</v>
-      </c>
-      <c r="B15">
-        <v>1.6408714499999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.4862519000000001</v>
-      </c>
-      <c r="B16">
-        <v>1.8483801799999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.95264773</v>
-      </c>
-      <c r="B17">
-        <v>1.8777850199999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.81769526</v>
-      </c>
-      <c r="B18">
-        <v>2.1258736499999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.8574823600000001</v>
-      </c>
-      <c r="B19">
-        <v>1.8996966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.11899229</v>
-      </c>
-      <c r="B20">
-        <v>2.3548006199999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.99498051</v>
-      </c>
-      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.33518481000000011</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-0.554530057902621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>-0.554530057902621</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-0.31224137202918856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1.6339489902816933</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-7.6148195469094793E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>-0.31224137202918856</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.12445868841277696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>-7.6148195469094793E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-6.7159566497823731E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>9.7786001547651269E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-4.4762679240880066E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.13456361836094821</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.10639251773029879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>-0.12445868841277696</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-5.6724547660425007E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8.5941155295146121E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.21979758090789736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.28065798881904191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>-6.7159566497823731E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>-4.4762679240880066E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0.12646251478139869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1.590843719174706E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>0.13211769577328925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>-0.10639251773029879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>0.23956668659616476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>-5.6724547660425007E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>2.3534648699999998</v>
       </c>
     </row>
